--- a/sample/sample3.xlsx
+++ b/sample/sample3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujita/Documents/Developer/Python/PileAnalyser/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7F25C-33BC-EC42-A142-53C17F7B1BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE3899-30E8-2D48-820A-6FD8D2EC7846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>N値</t>
   </si>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>alpha</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -367,7 +363,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -418,7 +414,7 @@
     </row>
     <row r="2" spans="1:28" ht="13">
       <c r="A2" s="6">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -430,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F24" si="0">IF(C2="S",80,IF(C2="C",60,""))</f>
@@ -442,7 +438,7 @@
     </row>
     <row r="3" spans="1:28" ht="13">
       <c r="A3" s="6">
-        <v>2.15</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -454,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
@@ -466,7 +462,7 @@
     </row>
     <row r="4" spans="1:28" ht="13">
       <c r="A4" s="6">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -478,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
@@ -490,7 +486,7 @@
     </row>
     <row r="5" spans="1:28" ht="13">
       <c r="A5" s="6">
-        <v>4.1500000000000004</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -502,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
@@ -514,7 +510,7 @@
     </row>
     <row r="6" spans="1:28" ht="13">
       <c r="A6" s="6">
-        <v>5.15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -526,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
@@ -538,7 +534,7 @@
     </row>
     <row r="7" spans="1:28" ht="13">
       <c r="A7" s="6">
-        <v>6.15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -550,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
@@ -562,7 +558,7 @@
     </row>
     <row r="8" spans="1:28" ht="13">
       <c r="A8" s="6">
-        <v>7.15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -574,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
@@ -586,7 +582,7 @@
     </row>
     <row r="9" spans="1:28" ht="13">
       <c r="A9" s="6">
-        <v>8.15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -598,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
@@ -610,7 +606,7 @@
     </row>
     <row r="10" spans="1:28" ht="13">
       <c r="A10" s="6">
-        <v>9.15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -622,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
@@ -634,7 +630,7 @@
     </row>
     <row r="11" spans="1:28" ht="13">
       <c r="A11" s="6">
-        <v>10.15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -646,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
@@ -658,7 +654,7 @@
     </row>
     <row r="12" spans="1:28" ht="13">
       <c r="A12" s="6">
-        <v>11.15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -670,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
@@ -682,7 +678,7 @@
     </row>
     <row r="13" spans="1:28" ht="13">
       <c r="A13" s="6">
-        <v>12.15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -694,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
@@ -706,7 +702,7 @@
     </row>
     <row r="14" spans="1:28" ht="13">
       <c r="A14" s="6">
-        <v>13.15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -718,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="9">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
@@ -730,13 +726,13 @@
     </row>
     <row r="15" spans="1:28" ht="13">
       <c r="A15" s="6">
-        <v>14.15</v>
+        <v>12.5</v>
       </c>
       <c r="B15" s="7">
         <v>60</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -746,22 +742,21 @@
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" ref="G15:G24" si="1">700*B15</f>
         <v>42000</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="13">
       <c r="A16" s="6">
-        <v>15.15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7">
         <v>60</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -771,22 +766,22 @@
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G16:G24" si="1">700*B16</f>
         <v>42000</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="6">
-        <v>16.149999999999999</v>
+        <v>14</v>
       </c>
       <c r="B17" s="7">
         <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -796,7 +791,7 @@
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
@@ -805,13 +800,13 @@
     </row>
     <row r="18" spans="1:7" ht="13">
       <c r="A18" s="6">
-        <v>17.149999999999999</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7">
         <v>60</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -821,7 +816,7 @@
       </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
@@ -830,13 +825,13 @@
     </row>
     <row r="19" spans="1:7" ht="13">
       <c r="A19" s="6">
-        <v>18.149999999999999</v>
+        <v>16</v>
       </c>
       <c r="B19" s="7">
         <v>60</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -846,7 +841,7 @@
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
@@ -855,13 +850,13 @@
     </row>
     <row r="20" spans="1:7" ht="13">
       <c r="A20" s="6">
-        <v>19.149999999999999</v>
+        <v>17</v>
       </c>
       <c r="B20" s="7">
         <v>60</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -871,7 +866,7 @@
       </c>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
@@ -880,13 +875,13 @@
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="6">
-        <v>20.149999999999999</v>
+        <v>18</v>
       </c>
       <c r="B21" s="7">
         <v>60</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -896,7 +891,7 @@
       </c>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
@@ -905,13 +900,13 @@
     </row>
     <row r="22" spans="1:7" ht="13">
       <c r="A22" s="6">
-        <v>21.15</v>
+        <v>19</v>
       </c>
       <c r="B22" s="7">
         <v>60</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -921,7 +916,7 @@
       </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
@@ -930,13 +925,13 @@
     </row>
     <row r="23" spans="1:7" ht="13">
       <c r="A23" s="6">
-        <v>22.15</v>
+        <v>20</v>
       </c>
       <c r="B23" s="7">
         <v>60</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -946,7 +941,7 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
@@ -955,13 +950,13 @@
     </row>
     <row r="24" spans="1:7" ht="13">
       <c r="A24" s="6">
-        <v>23.1</v>
+        <v>21</v>
       </c>
       <c r="B24" s="7">
         <v>60</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -971,7 +966,7 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
@@ -979,22 +974,79 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="13">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7">
+        <v>61</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" ref="F25:F27" si="2">IF(C25="S",80,IF(C25="C",60,""))</f>
+        <v>80</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" ref="G25:G27" si="3">700*B25</f>
+        <v>42700</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="13">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7">
+        <v>62</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="3"/>
+        <v>43400</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7">
+        <v>63</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="3"/>
+        <v>44100</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="13">
       <c r="A28" s="6"/>
